--- a/Document/Test Case Pra UAS/Test Case Calendar.xlsx
+++ b/Document/Test Case Pra UAS/Test Case Calendar.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\POLBAN\AKADEMIK\D3-Semester III\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="120" windowWidth="19920" windowHeight="8010"/>
+    <workbookView xWindow="936" yWindow="0" windowWidth="22104" windowHeight="9972"/>
   </bookViews>
   <sheets>
-    <sheet name="Calendar" sheetId="1" r:id="rId1"/>
+    <sheet name="Show Calendar" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="40">
   <si>
     <t>ID Skenario</t>
   </si>
@@ -22,6 +32,15 @@
     <t>Nama Skenario</t>
   </si>
   <si>
+    <t>Hasil</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
     <t>Halaman Kalender</t>
   </si>
   <si>
@@ -37,56 +56,101 @@
     <t>List button</t>
   </si>
   <si>
-    <t>Next Button</t>
-  </si>
-  <si>
-    <t>Previous button</t>
-  </si>
-  <si>
     <t>Today button</t>
   </si>
   <si>
-    <t>Hasil</t>
+    <t>Look kalender sukses</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu bulan</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu minggu</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu hari</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam bentuk list</t>
   </si>
   <si>
     <t>SKA-1</t>
   </si>
   <si>
-    <t>Look kalender sukses</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu bulan</t>
-  </si>
-  <si>
     <t>SKA-2</t>
   </si>
   <si>
-    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu minggu</t>
-  </si>
-  <si>
     <t>SKA-3</t>
   </si>
   <si>
-    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu hari</t>
-  </si>
-  <si>
     <t>SKA-4</t>
   </si>
   <si>
-    <t>Halaman kalender menampilkan event yang sudah ada dalam bentuk list</t>
+    <t>&lt; button</t>
+  </si>
+  <si>
+    <t>&gt; button</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu bulan di bulan sebelumnya</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu bulan di bulan setelahnya</t>
+  </si>
+  <si>
+    <t>SKA-5</t>
+  </si>
+  <si>
+    <t>SKA-6</t>
+  </si>
+  <si>
+    <t>SKA-7</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu minggu di minggu sebelumnya</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu minggu di minggu setelahnya</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu bulan di bulan yang sedang berlangsung</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu minggu di minggu yang sedang berlangsung</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu hari di hari sebelumnya</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu hari di hari setelahnya</t>
+  </si>
+  <si>
+    <t>Halaman kalender menampilkan event yang sudah ada dalam daftar satu hari di hari yang sedang berlangsung</t>
+  </si>
+  <si>
+    <t>SKA-8</t>
+  </si>
+  <si>
+    <t>SKA-9</t>
+  </si>
+  <si>
+    <t>SKA-10</t>
+  </si>
+  <si>
+    <t>SKA-11</t>
+  </si>
+  <si>
+    <t>SKA-12</t>
+  </si>
+  <si>
+    <t>SKA-13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,14 +166,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -120,7 +176,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF002060"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,8 +245,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -200,21 +259,30 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -229,39 +297,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,9 +361,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,6 +396,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -338,359 +408,655 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="73.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5546875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="6.77734375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="106.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.75" thickBot="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="2" t="s">
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>21</v>
-      </c>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
